--- a/biology/Zoologie/Anadia_(lézard)/Anadia_(lézard).xlsx
+++ b/biology/Zoologie/Anadia_(lézard)/Anadia_(lézard).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anadia_(l%C3%A9zard)</t>
+          <t>Anadia_(lézard)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anadia est un genre de sauriens de la famille des Gymnophthalmidae[1].
+Anadia est un genre de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anadia_(l%C3%A9zard)</t>
+          <t>Anadia_(lézard)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud et dans le sud de l'Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud et dans le sud de l'Amérique centrale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anadia_(l%C3%A9zard)</t>
+          <t>Anadia_(lézard)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles diurnes, et ovipares assez petits, aux pattes petites voire atrophiées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anadia_(l%C3%A9zard)</t>
+          <t>Anadia_(lézard)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (5 janvier 2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (5 janvier 2016) :
 Anadia altaserrania Harris &amp; Ayala, 1987
 Anadia antioquensis Arredondo, 2013
 Anadia bitaeniata Boulenger, 1903
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anadia_(l%C3%A9zard)</t>
+          <t>Anadia_(lézard)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1845 : Catalogue of the specimens of lizards in the collection of the British Museum. p. 1-289 (texte intégral).</t>
         </is>
